--- a/Luban/Datas/__tables__.xlsx
+++ b/Luban/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\YuFramework\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\200 - 学习\202 - 项目\unity\2.5D\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9119BF4-1CEB-450F-9EC1-D24EF47CA5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8530C110-2968-4FAF-8E27-CC11F57DAE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,118 +67,121 @@
     <t>从excel读取定义</t>
   </si>
   <si>
+    <t>表id字段</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>输出文件名</t>
+  </si>
+  <si>
+    <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
+  </si>
+  <si>
+    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
+  </si>
+  <si>
+    <t>取值one|map|list，为空自动为map</t>
+  </si>
+  <si>
+    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
+  </si>
+  <si>
+    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>CfgPrefab</t>
+  </si>
+  <si>
+    <t>CfgSFX</t>
+  </si>
+  <si>
+    <t>CfgSprite</t>
+  </si>
+  <si>
+    <t>CfgUI</t>
+  </si>
+  <si>
+    <t>CfgBGM</t>
+  </si>
+  <si>
+    <t>RowCfgBgm</t>
+  </si>
+  <si>
+    <t>BGM@AudioSystem.xlsx</t>
+  </si>
+  <si>
+    <t>RowCfgSFX</t>
+  </si>
+  <si>
+    <t>SFX@AudioSystem.xlsx</t>
+  </si>
+  <si>
+    <t>RowCfgUI</t>
+  </si>
+  <si>
+    <t>UI@UISystem.xlsx</t>
+  </si>
+  <si>
+    <t>RowCfgSprite</t>
+  </si>
+  <si>
+    <t>CfgCamera</t>
+  </si>
+  <si>
+    <t>RowCfgCamera</t>
+  </si>
+  <si>
+    <t>Camera@UISystem.xlsx</t>
+  </si>
+  <si>
+    <t>RowCfgPrefab</t>
+  </si>
+  <si>
+    <t>Sprite@Sprite.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CfgScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RowCfgScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RowCfgHUD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CfgHUD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUD@UISystem.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>文件列表</t>
-  </si>
-  <si>
-    <t>表id字段</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>输出文件名</t>
-  </si>
-  <si>
-    <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
-  </si>
-  <si>
-    <t>可以多个，以逗号','分隔</t>
-  </si>
-  <si>
-    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
-  </si>
-  <si>
-    <t>取值one|map|list，为空自动为map</t>
-  </si>
-  <si>
-    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
-  </si>
-  <si>
-    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>CfgPrefab</t>
-  </si>
-  <si>
-    <t>CfgSFX</t>
-  </si>
-  <si>
-    <t>CfgSprite</t>
-  </si>
-  <si>
-    <t>CfgUI</t>
-  </si>
-  <si>
-    <t>CfgBGM</t>
-  </si>
-  <si>
-    <t>RowCfgBgm</t>
-  </si>
-  <si>
-    <t>BGM@AudioSystem.xlsx</t>
-  </si>
-  <si>
-    <t>RowCfgSFX</t>
-  </si>
-  <si>
-    <t>SFX@AudioSystem.xlsx</t>
-  </si>
-  <si>
-    <t>RowCfgUI</t>
-  </si>
-  <si>
-    <t>UI@UISystem.xlsx</t>
-  </si>
-  <si>
-    <t>RowCfgSprite</t>
-  </si>
-  <si>
-    <t>CfgCamera</t>
-  </si>
-  <si>
-    <t>RowCfgCamera</t>
-  </si>
-  <si>
-    <t>Camera@UISystem.xlsx</t>
-  </si>
-  <si>
-    <t>RowCfgPrefab</t>
-  </si>
-  <si>
-    <t>Prefab@UISystem.xlsx</t>
-  </si>
-  <si>
-    <t>Sprite@Sprite.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CfgScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowCfgScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowCfgHUD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CfgHUD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HUD@UISystem.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以多个，以逗号','分隔。@前面是表名，后面是文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab@Prefab.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,9 +259,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -601,22 +601,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -624,135 +624,140 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
+      <c r="E5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>44</v>
+      <c r="E6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
+      <c r="E7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>50</v>
+      <c r="E8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
